--- a/KitabooAutomation/testData/TestData.xlsx
+++ b/KitabooAutomation/testData/TestData.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="roshani.loreeya"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="32" xWindow="240" yWindow="60" windowWidth="15360" windowHeight="7830" tabRatio="991"/>
+    <workbookView activeTab="31" xWindow="240" yWindow="60" windowWidth="15360" windowHeight="7830" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Static_data" sheetId="1" r:id="rId4"/>
@@ -61,10 +61,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1601384431" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1601384431" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1601384431" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1601384431"/>
+      <pm:revision xmlns:pm="smNativeData" day="1601388363" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1601388363" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1601388363" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1601388363"/>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +101,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601384431">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601388363">
                   <pm:latin face="Times New Roman" sz="180" weight="normal" i="0"/>
                   <pm:cs sz="180"/>
                   <pm:ea face="Times New Roman" sz="180"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1704">
   <si>
     <t>Languages</t>
   </si>
@@ -4973,145 +4973,148 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>rdl_test2200@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute Account </t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Reader url</t>
+  </si>
+  <si>
+    <t>institute user1</t>
+  </si>
+  <si>
+    <t>Learner</t>
+  </si>
+  <si>
+    <t>https://qcread.kitaboo.com/reader/kitaboo_5.0_master/#!/login</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Reader User ID</t>
+  </si>
+  <si>
+    <t>Information perpose only</t>
+  </si>
+  <si>
+    <t>roshani@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://read.kitaboo.com</t>
+  </si>
+  <si>
+    <t>sprint27_INSTRUCTOR@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://qcread.kitaboo.com/reader/MobileReader/reader/index.html</t>
+  </si>
+  <si>
+    <t>eu.reader@yopmail.com</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>https://read.kitaboo.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reader.staging12@yopmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitaboo@123 </t>
+  </si>
+  <si>
+    <t>https://qaread.kitaboo.com</t>
+  </si>
+  <si>
+    <t>Book Launch Title</t>
+  </si>
+  <si>
+    <t>Qc.learner11@yopmail.com</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>http://qcread.kitaboo.com/reader/MobileReader/#!/#%2Flogin</t>
+  </si>
+  <si>
+    <t>Test Aucio1</t>
+  </si>
+  <si>
+    <t>test.admin@yopmail.com</t>
+  </si>
+  <si>
+    <t>http://qc.kitaboo.com/reader/MobileReader/#/login</t>
+  </si>
+  <si>
+    <t>How Many Reports You Want to Generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login ID </t>
+  </si>
+  <si>
+    <t>Active Users</t>
+  </si>
+  <si>
+    <t>Order Details</t>
+  </si>
+  <si>
+    <t>Book Status</t>
+  </si>
+  <si>
+    <t>Book Distribution Details</t>
+  </si>
+  <si>
+    <t>Page Count</t>
+  </si>
+  <si>
+    <t>Book Statistics</t>
+  </si>
+  <si>
+    <t>User Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>automation_qc@yopmail.com</t>
+  </si>
+  <si>
+    <t>http://qc.kitaboo.com/home.xhtml</t>
+  </si>
+  <si>
+    <t>Time Frame</t>
+  </si>
+  <si>
+    <t>Select Time Period</t>
+  </si>
+  <si>
     <t>Start Date</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>rdl_test2200@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test Street</t>
-  </si>
-  <si>
-    <t>Sub Publisher Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute Account </t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Email id</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Reader url</t>
-  </si>
-  <si>
-    <t>institute user1</t>
-  </si>
-  <si>
-    <t>Learner</t>
-  </si>
-  <si>
-    <t>https://qcread.kitaboo.com/reader/kitaboo_5.0_master/#!/login</t>
-  </si>
-  <si>
-    <t>Instructor</t>
-  </si>
-  <si>
-    <t>Reader User ID</t>
-  </si>
-  <si>
-    <t>Information perpose only</t>
-  </si>
-  <si>
-    <t>roshani@yopmail.com</t>
-  </si>
-  <si>
-    <t>https://read.kitaboo.com</t>
-  </si>
-  <si>
-    <t>sprint27_INSTRUCTOR@yopmail.com</t>
-  </si>
-  <si>
-    <t>https://qcread.kitaboo.com/reader/MobileReader/reader/index.html</t>
-  </si>
-  <si>
-    <t>eu.reader@yopmail.com</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>https://read.kitaboo.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reader.staging12@yopmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitaboo@123 </t>
-  </si>
-  <si>
-    <t>https://qaread.kitaboo.com</t>
-  </si>
-  <si>
-    <t>Book Launch Title</t>
-  </si>
-  <si>
-    <t>Qc.learner11@yopmail.com</t>
-  </si>
-  <si>
-    <t>qc</t>
-  </si>
-  <si>
-    <t>http://qcread.kitaboo.com/reader/MobileReader/#!/#%2Flogin</t>
-  </si>
-  <si>
-    <t>Test Aucio1</t>
-  </si>
-  <si>
-    <t>test.admin@yopmail.com</t>
-  </si>
-  <si>
-    <t>http://qc.kitaboo.com/reader/MobileReader/#/login</t>
-  </si>
-  <si>
-    <t>How Many Reports You Want to Generate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login ID </t>
-  </si>
-  <si>
-    <t>Active Users</t>
-  </si>
-  <si>
-    <t>Order Details</t>
-  </si>
-  <si>
-    <t>Book Status</t>
-  </si>
-  <si>
-    <t>Book Distribution Details</t>
-  </si>
-  <si>
-    <t>Page Count</t>
-  </si>
-  <si>
-    <t>Book Statistics</t>
-  </si>
-  <si>
-    <t>User Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username </t>
-  </si>
-  <si>
-    <t>automation_qc@yopmail.com</t>
-  </si>
-  <si>
-    <t>http://qc.kitaboo.com/home.xhtml</t>
-  </si>
-  <si>
-    <t>Time Frame</t>
-  </si>
-  <si>
-    <t>Select Time Period</t>
   </si>
   <si>
     <t>End Date</t>
@@ -5262,7 +5265,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5277,7 +5280,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5293,7 +5296,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5309,7 +5312,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5325,7 +5328,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="240" lang="default" weight="bold"/>
@@ -5341,7 +5344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5357,7 +5360,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5372,7 +5375,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -5388,7 +5391,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5404,7 +5407,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -5418,7 +5421,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="3B3B3B" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="3B3B3B" ulstyle="none" kern="1">
             <pm:latin face="open_sansregular" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -5433,7 +5436,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -5448,7 +5451,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="2A00FF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="2A00FF" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5463,7 +5466,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="191919" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="191919" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5477,7 +5480,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="263238" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="263238" ulstyle="none" kern="1">
             <pm:latin face="open_sansregular" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -5493,7 +5496,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5509,7 +5512,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="180" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="180" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="180" lang="default" weight="bold"/>
@@ -5525,7 +5528,7 @@
       <sz val="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="320" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="320" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="320" lang="default" weight="bold"/>
@@ -5541,7 +5544,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -5556,7 +5559,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="360" lang="default"/>
             <pm:ea face="SimSun" sz="360" lang="default"/>
@@ -5570,7 +5573,7 @@
       <sz val="10.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="3B3B3B" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="3B3B3B" ulstyle="none" kern="1">
             <pm:latin face="open_sansregular" sz="210" lang="default"/>
             <pm:cs face="Times New Roman" sz="210" lang="default"/>
             <pm:ea face="SimSun" sz="210" lang="default"/>
@@ -5585,7 +5588,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="222222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="222222" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -5600,7 +5603,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="3B3B3B" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="3B3B3B" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -5615,7 +5618,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5630,7 +5633,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5645,7 +5648,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5661,7 +5664,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -5676,7 +5679,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5692,7 +5695,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5708,7 +5711,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -5723,7 +5726,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5739,7 +5742,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -5755,7 +5758,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5771,7 +5774,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -5786,7 +5789,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5801,7 +5804,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5817,7 +5820,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -5833,7 +5836,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5850,7 +5853,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5867,7 +5870,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5884,7 +5887,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5901,7 +5904,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5918,7 +5921,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5935,7 +5938,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5952,7 +5955,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5969,7 +5972,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5986,7 +5989,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6003,7 +6006,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6020,7 +6023,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6036,7 +6039,7 @@
       <sz val="9.75"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="263238" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="263238" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="195" lang="default"/>
             <pm:cs face="Times New Roman" sz="195" lang="default"/>
             <pm:ea face="SimSun" sz="195" lang="default"/>
@@ -6052,7 +6055,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6068,7 +6071,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6084,7 +6087,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6100,7 +6103,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6117,7 +6120,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6134,7 +6137,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6151,7 +6154,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6168,7 +6171,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6184,7 +6187,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6201,7 +6204,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6218,7 +6221,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6235,7 +6238,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6252,7 +6255,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6269,7 +6272,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601384431" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601388363" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -6291,7 +6294,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6302,7 +6305,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6316,7 +6319,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6327,7 +6330,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6338,7 +6341,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6349,7 +6352,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6363,7 +6366,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6374,7 +6377,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6385,7 +6388,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6396,7 +6399,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6407,7 +6410,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6418,7 +6421,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6435,7 +6438,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6446,7 +6449,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6457,7 +6460,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6468,7 +6471,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6479,7 +6482,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6490,7 +6493,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6501,7 +6504,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6512,7 +6515,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6523,7 +6526,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6534,7 +6537,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6545,7 +6548,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6556,7 +6559,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6567,7 +6570,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6578,7 +6581,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6589,7 +6592,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6600,7 +6603,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6611,7 +6614,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6622,7 +6625,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6633,7 +6636,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6644,7 +6647,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6655,7 +6658,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6666,7 +6669,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6677,7 +6680,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6688,7 +6691,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6702,7 +6705,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6713,7 +6716,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFF2CC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6724,7 +6727,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6735,7 +6738,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6746,7 +6749,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00DEEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6757,7 +6760,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6768,7 +6771,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6779,7 +6782,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6790,7 +6793,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00800080" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00800080" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6801,7 +6804,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="0000B0F0" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="0000B0F0" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6812,7 +6815,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601384431" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601388363" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6834,7 +6837,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -6853,7 +6856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -6872,7 +6875,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -6896,7 +6899,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
         </ext>
@@ -6917,7 +6920,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -6941,7 +6944,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -6960,7 +6963,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -6979,7 +6982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -6998,7 +7001,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="A6BEDD"/>
           </pm:border>
         </ext>
@@ -7019,7 +7022,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -7043,7 +7046,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7062,7 +7065,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7081,7 +7084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -7105,7 +7108,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7124,7 +7127,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -7148,7 +7151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -7169,7 +7172,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
@@ -7191,7 +7194,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7210,7 +7213,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7229,7 +7232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7248,7 +7251,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7267,7 +7270,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7286,7 +7289,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7305,7 +7308,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7324,7 +7327,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7343,7 +7346,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7362,7 +7365,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7381,7 +7384,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7400,7 +7403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7419,7 +7422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7438,7 +7441,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7457,7 +7460,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7476,7 +7479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7495,7 +7498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7514,7 +7517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7533,7 +7536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7552,7 +7555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7571,7 +7574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7595,7 +7598,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7614,7 +7617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7633,7 +7636,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7654,7 +7657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7675,7 +7678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7699,7 +7702,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7722,7 +7725,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7745,7 +7748,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7769,7 +7772,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7790,7 +7793,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7814,7 +7817,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7837,7 +7840,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7856,7 +7859,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431">
+          <pm:border xmlns:pm="smNativeData" id="1601388363">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7880,7 +7883,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -7899,7 +7902,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601384431"/>
+          <pm:border xmlns:pm="smNativeData" id="1601388363"/>
         </ext>
       </extLst>
     </border>
@@ -8532,10 +8535,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1601384431" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1601388363" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1601384431" count="52">
+      <pm:colors xmlns:pm="smNativeData" id="1601388363" count="52">
         <pm:color name="Color 24" rgb="800080"/>
         <pm:color name="Color 25" rgb="263238"/>
         <pm:color name="Color 26" rgb="3B3B3B"/>
@@ -8980,7 +8983,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8989,16 +8992,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9134,7 +9137,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9143,16 +9146,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9188,7 +9191,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9197,16 +9200,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10246,7 +10249,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10255,16 +10258,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10461,7 +10464,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10470,16 +10473,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10600,7 +10603,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10609,16 +10612,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11163,7 +11166,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11172,16 +11175,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11548,7 +11551,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11557,16 +11560,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11823,7 +11826,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11832,16 +11835,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12057,7 +12060,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12066,16 +12069,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12229,7 +12232,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12238,16 +12241,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12480,7 +12483,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12489,16 +12492,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12556,7 +12559,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12565,16 +12568,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13365,7 +13368,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13374,16 +13377,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13482,7 +13485,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13491,16 +13494,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13570,7 +13573,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13579,16 +13582,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13640,7 +13643,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13649,16 +13652,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13775,7 +13778,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13784,16 +13787,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13923,7 +13926,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13932,16 +13935,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14072,7 +14075,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14081,16 +14084,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14391,7 +14394,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14400,16 +14403,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14458,7 +14461,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14467,16 +14470,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14830,7 +14833,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14839,16 +14842,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15014,7 +15017,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15023,16 +15026,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15184,7 +15187,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15193,16 +15196,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15213,25 +15216,25 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="9.589286" customWidth="1"/>
     <col min="2" max="3" width="15.258929" customWidth="1"/>
-    <col min="4" max="4" width="21.973214" customWidth="1"/>
-    <col min="5" max="5" width="5.535714" customWidth="1"/>
-    <col min="6" max="6" width="8.232143" customWidth="1"/>
+    <col min="4" max="6" width="21.973214" customWidth="1"/>
     <col min="7" max="7" width="5.535714" customWidth="1"/>
-    <col min="8" max="8" width="8.357143" customWidth="1"/>
-    <col min="9" max="9" width="8.232143" customWidth="1"/>
+    <col min="8" max="8" width="8.232143" customWidth="1"/>
+    <col min="9" max="9" width="6.803571" customWidth="1"/>
+    <col min="10" max="10" width="10.803571" customWidth="1"/>
+    <col min="11" max="11" width="10.428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="50" t="s">
         <v>1596</v>
       </c>
@@ -15245,25 +15248,29 @@
         <v>1599</v>
       </c>
       <c r="E1" s="50" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>1600</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>1601</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>1602</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>1603</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>1617</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="77" t="s">
         <v>1258</v>
       </c>
@@ -15274,61 +15281,45 @@
         <v>1606</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E2" t="s">
         <v>1620</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H2" t="s">
         <v>1609</v>
       </c>
-      <c r="G2" s="78" t="n">
+      <c r="I2" s="78" t="n">
         <v>784545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>8881212865</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
-      <c r="D4" s="80" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G5" t="n">
-        <v>401015</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4564564561</v>
-      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
@@ -15336,31 +15327,23 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation sqref="A2:C2" type="custom" operator="between" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR:" error="NULL VALUE NOT ACCEPTED!" view="0">
       <formula1>NOT(ISBLANK(A2))</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation sqref="G2" type="textLength" operator="between" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR:" error="Zip accepted min 1 AND max 9 character " view="0">
+    <dataValidation sqref="I2" type="textLength" operator="between" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR:" error="Zip accepted min 1 AND max 9 character " view="0">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation sqref="I2" type="custom" operator="between" errorStyle="stop" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>ISNUMBER($I2)</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation sqref="J2" type="custom" operator="between" errorStyle="stop" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>ISNUMBER($J2)</formula1>
-      <formula2/>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2:F2" r:id="rId1"/>
   </hyperlinks>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15369,16 +15352,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15391,8 +15374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView view="normal" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -15624,7 +15607,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15633,16 +15616,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15850,7 +15833,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15859,16 +15842,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15972,19 +15955,19 @@
         <v>1663</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B6" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C6" s="64" t="n">
         <v>1</v>
@@ -16001,13 +15984,13 @@
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="I7" s="117" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>73</v>
@@ -16019,7 +16002,7 @@
         <v>106</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="N7" s="71"/>
     </row>
@@ -16034,7 +16017,7 @@
         <v>2018</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>20</v>
@@ -16058,7 +16041,7 @@
         <v>2019</v>
       </c>
       <c r="I9" s="119" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>73</v>
@@ -16070,7 +16053,7 @@
         <v>106</v>
       </c>
       <c r="M9" s="120" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="N9" s="71"/>
     </row>
@@ -16199,7 +16182,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16208,17 +16191,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId7"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16319,19 +16302,19 @@
         <v>1663</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B6" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C6" s="64" t="n">
         <v>22</v>
@@ -16348,13 +16331,13 @@
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="64" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="I7" s="117" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>73</v>
@@ -16366,7 +16349,7 @@
         <v>106</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="N7" s="71"/>
     </row>
@@ -16381,7 +16364,7 @@
         <v>2018</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>20</v>
@@ -16399,7 +16382,7 @@
     </row>
     <row r="9" spans="9:14">
       <c r="I9" s="119" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>73</v>
@@ -16411,13 +16394,13 @@
         <v>106</v>
       </c>
       <c r="M9" s="120" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="68" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B10" s="69"/>
       <c r="I10" s="116" t="s">
@@ -16445,19 +16428,19 @@
         <v>1663</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B12" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C12" s="64" t="n">
         <v>1</v>
@@ -16469,10 +16452,10 @@
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="I13" s="59"/>
     </row>
@@ -16506,22 +16489,22 @@
         <v>1308</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B18" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C18" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D18" s="64" t="n">
         <v>15</v>
@@ -16533,10 +16516,10 @@
     </row>
     <row r="19" spans="4:9">
       <c r="D19" s="64" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="I19" s="59"/>
     </row>
@@ -16567,25 +16550,25 @@
         <v>1663</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B24" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C24" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
@@ -16593,10 +16576,10 @@
     </row>
     <row r="25" spans="4:9">
       <c r="D25" s="64" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="I25" s="59"/>
     </row>
@@ -16630,22 +16613,22 @@
         <v>1308</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B30" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C30" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D30" s="64" t="n">
         <v>25</v>
@@ -16656,10 +16639,10 @@
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="64" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="32" spans="4:5">
@@ -16687,29 +16670,29 @@
         <v>1308</v>
       </c>
       <c r="D35" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="E35" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B36" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C36" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E37" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="38" spans="4:5">
@@ -16736,29 +16719,29 @@
         <v>1308</v>
       </c>
       <c r="D41" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="E41" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B42" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C42" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E43" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="44" spans="4:5">
@@ -16828,7 +16811,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16837,16 +16820,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16873,27 +16856,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="65" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="114" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B2" s="115" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C2" s="114" t="s">
         <v>1688</v>
-      </c>
-      <c r="C2" s="114" t="s">
-        <v>1687</v>
       </c>
       <c r="D2" t="s">
         <v>1234</v>
@@ -16913,7 +16896,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16922,16 +16905,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16961,10 +16944,10 @@
         <v>1338</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>1352</v>
@@ -16972,16 +16955,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="49" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16992,7 +16975,7 @@
         <v>1391</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>52</v>
@@ -17042,7 +17025,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17051,16 +17034,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17098,10 +17081,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>1143</v>
@@ -17115,16 +17098,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D2" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="E2" t="s">
         <v>1415</v>
@@ -17915,7 +17898,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17924,17 +17907,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23103,7 +23086,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23112,16 +23095,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23151,10 +23134,10 @@
         <v>1299</v>
       </c>
       <c r="B1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23165,7 +23148,7 @@
         <v>1233</v>
       </c>
       <c r="C2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
   </sheetData>
@@ -23183,7 +23166,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23192,16 +23175,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23231,14 +23214,14 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23247,16 +23230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23281,7 +23264,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23290,16 +23273,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23324,7 +23307,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23333,16 +23316,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24134,7 +24117,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24143,16 +24126,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24617,7 +24600,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24626,16 +24609,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24732,7 +24715,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24741,16 +24724,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24929,7 +24912,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24938,16 +24921,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -25003,7 +24986,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601384431" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601388363" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -25012,16 +24995,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601384431" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601384431" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601388363" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601388363" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601384431" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601388363" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
